--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS003-001 -Kepesertaan - Transaksi - Deposit - Register Deposit (Bulk).xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS003-001 -Kepesertaan - Transaksi - Deposit - Register Deposit (Bulk).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4598226-84C6-45F1-B6D4-EB200EBE305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC62CC-2F05-434A-A564-043CC5D866E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>0 : Pending Register</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>Asistent Settlement</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,25 +551,26 @@
     <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,40 +596,43 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,102 +657,110 @@
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="R2" s="9">
         <v>44777</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
       <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="N5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="5"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS003-001 -Kepesertaan - Transaksi - Deposit - Register Deposit (Bulk).xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS003-001 -Kepesertaan - Transaksi - Deposit - Register Deposit (Bulk).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC62CC-2F05-434A-A564-043CC5D866E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC975D-CE1B-487D-88FF-34C319882060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -134,6 +134,54 @@
   </si>
   <si>
     <t>Asistent Settlement</t>
+  </si>
+  <si>
+    <t>Verifikasi Register Deposit (Bulk)</t>
+  </si>
+  <si>
+    <t>Penyelia Settlement</t>
+  </si>
+  <si>
+    <t>Proses</t>
+  </si>
+  <si>
+    <t>Verifikasi Deposit (Bulk)</t>
+  </si>
+  <si>
+    <t>1 : Lanjutkan ke Verifikasi</t>
+  </si>
+  <si>
+    <t>000007947</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>Setuju Verifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username : 31224;
+Password : bni1234; 
+Kode Perusahaan : 000007947;
+Status Register : 1 : Setuju;
+Keterangan Upload : Setuju Verifikasi
+</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KETERANGAN_VERIFIKASI</t>
+  </si>
+  <si>
+    <t>KEP.TRX.086/24</t>
+  </si>
+  <si>
+    <t>Username : 33028;
+Password : bni1234; 
+Kode Perusahaan : 000007947;
+Status Register : 1 : Lanjutkan ke Verifikasi;
+Keterangan Register : KEP.TRX.086/24</t>
   </si>
 </sst>
 </file>
@@ -537,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +611,8 @@
     <col min="18" max="18" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="1"/>
@@ -631,11 +679,14 @@
       <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,40 +749,112 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="N3" s="10"/>
+    <row r="3" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4">
+        <v>33028</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
+      <c r="S3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+    <row r="4" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4">
+        <v>30711</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="9"/>
+      <c r="U4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
